--- a/Data/Table/BI.xlsx
+++ b/Data/Table/BI.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushaolei/Documents/GitHub/PolarBlastPop/Data/Table/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099540DC-0E5D-034D-BF77-7BF226DC551C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28940" windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="事件统计|BI|Function" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>fotoable</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,17 +30,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Hou:</t>
+Hou:</t>
         </r>
         <r>
           <rPr>
@@ -66,17 +50,7 @@
             <rFont val="方正书宋_GBK"/>
             <charset val="134"/>
           </rPr>
-          <t>必填参数</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>:</t>
+          <t>必填参数:</t>
         </r>
         <r>
           <rPr>
@@ -86,56 +60,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">AppVersion, devId, playerid, debugMode, channel
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">CurrentLevel, difficultyLevel,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">curMainTaskID int,
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">curActiveTaskIds jsonArray[1, 2, 3],
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+AppVersion, devId, playerid, debugMode, channel
+CurrentLevel, difficultyLevel,
+curMainTaskID int,
+curActiveTaskIds jsonArray[1, 2, 3],
 </t>
         </r>
         <r>
@@ -155,17 +83,8 @@
             <rFont val="方正书宋_GBK"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Value JSON</t>
+          <t>:
+Value JSON</t>
         </r>
       </text>
     </comment>
@@ -174,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t>函数名</t>
   </si>
@@ -437,273 +356,399 @@
     <t>arg21Name</t>
   </si>
   <si>
+    <t>Ad_Reward</t>
+  </si>
+  <si>
     <t>激励广告</t>
   </si>
   <si>
+    <t>1每日转盘,2关卡失败</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>step</t>
   </si>
   <si>
+    <t>有无拉取到的广告:0没有,1有</t>
+  </si>
+  <si>
+    <t>hasAd</t>
+  </si>
+  <si>
+    <t>是否达到每日上限:0没有到达,1到达</t>
+  </si>
+  <si>
+    <t>maxTimes</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>leftCoin</t>
+  </si>
+  <si>
+    <t>当天观看的第几个奖励视频广告，次日清零</t>
+  </si>
+  <si>
+    <t>adcount</t>
+  </si>
+  <si>
+    <t>关卡内观看广告,当天第几次</t>
+  </si>
+  <si>
+    <t>levelAdCount</t>
+  </si>
+  <si>
+    <t>Open_Close_Shop</t>
+  </si>
+  <si>
+    <t>Open_Shop</t>
+  </si>
+  <si>
+    <t>打开商城界面记录</t>
+  </si>
+  <si>
+    <t>1:点开;2:返回</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>来源 1:主动充值,2:金币免看广告获得家具,3:金币获得家具,4:金币加速任务,5:加速卡道具,6:道具多个提示,7:道具单个随机提示,8:道具单个指定提示,9:家具套装购买关卡</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>商店类型,1:充值商店; 2:存钱罐</t>
+  </si>
+  <si>
+    <t>ShopType</t>
+  </si>
+  <si>
+    <t>Custume_Click</t>
+  </si>
+  <si>
+    <t>金币充值商品按钮点击</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>是否达到每日上限:0没有到达,1到达</t>
-  </si>
-  <si>
-    <t>maxTimes</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>leftCoin</t>
-  </si>
-  <si>
-    <t>当天观看的第几个奖励视频广告，次日清零</t>
-  </si>
-  <si>
-    <t>adcount</t>
-  </si>
-  <si>
-    <t>levelAdCount</t>
-  </si>
-  <si>
-    <t>Open_Close_Shop</t>
-  </si>
-  <si>
-    <t>Open_Shop</t>
-  </si>
-  <si>
-    <t>打开商城界面记录</t>
-  </si>
-  <si>
-    <t>1:点开;2:返回</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>来源 1:主动充值,2:金币免看广告获得家具,3:金币获得家具,4:金币加速任务,5:加速卡道具,6:道具多个提示,7:道具单个随机提示,8:道具单个指定提示,9:家具套装购买关卡</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>商店类型,1:充值商店; 2:存钱罐</t>
-  </si>
-  <si>
-    <t>ShopType</t>
-  </si>
-  <si>
-    <t>Custume_Click</t>
-  </si>
-  <si>
-    <t>金币充值商品按钮点击</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
     <t>productId</t>
   </si>
   <si>
+    <t>PaySuccess</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <t>商店skuId</t>
+  </si>
+  <si>
+    <t>storeId</t>
+  </si>
+  <si>
+    <t>价格(美元)</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>购买时的等级</t>
+  </si>
+  <si>
+    <t>userLevel</t>
+  </si>
+  <si>
+    <t>购买前的金币数量</t>
+  </si>
+  <si>
+    <t>coinsBeforePay</t>
+  </si>
+  <si>
+    <t>购买前的历史付费金额(美元)</t>
+  </si>
+  <si>
+    <t>payTotalBeforePay</t>
+  </si>
+  <si>
+    <t>支付时的平台</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>Click_Level</t>
+  </si>
+  <si>
+    <t>点击关卡按钮</t>
+  </si>
+  <si>
+    <t>当前关卡</t>
+  </si>
+  <si>
+    <t>LevelId</t>
+  </si>
+  <si>
+    <t>Enter_Level</t>
+  </si>
+  <si>
+    <t>进入关卡记录</t>
+  </si>
+  <si>
+    <t>Return_Level</t>
+  </si>
+  <si>
+    <t>关卡返回</t>
+  </si>
+  <si>
+    <t>Complete_Level</t>
+  </si>
+  <si>
+    <t>通关关卡记录</t>
+  </si>
+  <si>
+    <t>剩余步数</t>
+  </si>
+  <si>
+    <t>RemainMoves</t>
+  </si>
+  <si>
+    <t>金币数量</t>
+  </si>
+  <si>
+    <t>CoinNum</t>
+  </si>
+  <si>
+    <t>关卡前置道具使用</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;int, int&gt;</t>
+  </si>
+  <si>
+    <t>PreUsedGoods</t>
+  </si>
+  <si>
+    <t>关卡内道具使用</t>
+  </si>
+  <si>
+    <t>InUsedGoods</t>
+  </si>
+  <si>
+    <t>金币买步数次数</t>
+  </si>
+  <si>
+    <t>buyLifeCount</t>
+  </si>
+  <si>
+    <t>看广告次数</t>
+  </si>
+  <si>
+    <t>watchAdCount</t>
+  </si>
+  <si>
+    <t>转盘获得步数的次数</t>
+  </si>
+  <si>
+    <t>wheelGotLifeCount</t>
+  </si>
+  <si>
+    <t>进入关卡时的连胜奖励(皇冠)等级</t>
+  </si>
+  <si>
+    <t>continuedWinRewardLevel</t>
+  </si>
+  <si>
+    <t>Fail_Level</t>
+  </si>
+  <si>
+    <t>关卡失败记录</t>
+  </si>
+  <si>
+    <t>NoWayOut_Level</t>
+  </si>
+  <si>
+    <t>关卡中没有可点击色块了（卡死了）</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>登陆记录</t>
+  </si>
+  <si>
+    <t>每日最早登陆时间</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Daily_Sign</t>
+  </si>
+  <si>
+    <t>每日签到领取记录</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>签到天数</t>
+  </si>
+  <si>
+    <t>DayNum</t>
+  </si>
+  <si>
+    <t>道具ID及数量</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Version_Updating</t>
+  </si>
+  <si>
+    <t>版本更新记录</t>
+  </si>
+  <si>
+    <t>更新前版本号</t>
+  </si>
+  <si>
+    <t>OldAppVersion</t>
+  </si>
+  <si>
+    <t>更新后版本号</t>
+  </si>
+  <si>
+    <t>NewAppVersion</t>
+  </si>
+  <si>
+    <t>OldAssetVersion</t>
+  </si>
+  <si>
+    <t>NewAssetVersion</t>
+  </si>
+  <si>
+    <t>Activity_Award</t>
+  </si>
+  <si>
+    <t>获得排行榜活动奖励记录</t>
+  </si>
+  <si>
+    <t>活动ID</t>
+  </si>
+  <si>
+    <t>ActId</t>
+  </si>
+  <si>
+    <t>Guild_succeed</t>
+  </si>
+  <si>
+    <t>新手引导成功</t>
+  </si>
+  <si>
+    <t>步骤ID</t>
+  </si>
+  <si>
+    <t>StepId</t>
+  </si>
+  <si>
+    <t>Game_Start</t>
+  </si>
+  <si>
+    <t>点击开始游戏按钮</t>
+  </si>
+  <si>
+    <t>IfSkip</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>消耗/获得类型</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>道具Id</t>
+  </si>
+  <si>
+    <t>GoodsId</t>
+  </si>
+  <si>
+    <t>变化后数量</t>
+  </si>
+  <si>
+    <t>NewNum</t>
+  </si>
+  <si>
+    <t>变化数量</t>
+  </si>
+  <si>
+    <t>ChangeNum</t>
+  </si>
+  <si>
+    <t>BindAccount</t>
+  </si>
+  <si>
+    <t>绑定账号</t>
+  </si>
+  <si>
+    <t>第三方类型, 1:fackbook</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>第三方ID</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>ErrorMsg</t>
+  </si>
+  <si>
+    <t>错误信息</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>报错场景(原因)</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>LimitGift</t>
+  </si>
+  <si>
+    <t>限制礼包统计</t>
+  </si>
+  <si>
+    <t>弹框:1弹出,2购买,3关闭</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>金币数量</t>
-  </si>
-  <si>
-    <t>CoinNum</t>
-  </si>
-  <si>
-    <t>GoodsId</t>
-  </si>
-  <si>
-    <t>Click_Level</t>
-  </si>
-  <si>
-    <t>点击关卡按钮</t>
-  </si>
-  <si>
-    <t>当前关卡</t>
-  </si>
-  <si>
-    <t>LevelId</t>
-  </si>
-  <si>
-    <t>Enter_Level</t>
-  </si>
-  <si>
-    <t>进入关卡记录</t>
-  </si>
-  <si>
-    <t>Return_Level</t>
-  </si>
-  <si>
-    <t>关卡返回</t>
-  </si>
-  <si>
-    <t>Complete_Level</t>
-  </si>
-  <si>
-    <t>通关关卡记录</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>每日最早登陆时间</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Daily_Sign</t>
-  </si>
-  <si>
-    <t>每日签到领取记录</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>签到天数</t>
-  </si>
-  <si>
-    <t>DayNum</t>
-  </si>
-  <si>
-    <t>道具ID及数量</t>
-  </si>
-  <si>
-    <t>Award</t>
-  </si>
-  <si>
-    <t>Version_Updating</t>
-  </si>
-  <si>
-    <t>版本更新记录</t>
-  </si>
-  <si>
-    <t>更新前版本号</t>
-  </si>
-  <si>
-    <t>OldAppVersion</t>
-  </si>
-  <si>
-    <t>更新后版本号</t>
-  </si>
-  <si>
-    <t>NewAppVersion</t>
-  </si>
-  <si>
-    <t>OldAssetVersion</t>
-  </si>
-  <si>
-    <t>NewAssetVersion</t>
-  </si>
-  <si>
-    <t>Activity_Award</t>
-  </si>
-  <si>
-    <t>获得排行榜活动奖励记录</t>
-  </si>
-  <si>
-    <t>活动ID</t>
-  </si>
-  <si>
-    <t>ActId</t>
-  </si>
-  <si>
-    <t>Guild_succeed</t>
-  </si>
-  <si>
-    <t>新手引导成功</t>
-  </si>
-  <si>
-    <t>步骤ID</t>
-  </si>
-  <si>
-    <t>StepId</t>
-  </si>
-  <si>
-    <t>Game_Start</t>
-  </si>
-  <si>
-    <t>点击开始游戏按钮</t>
-  </si>
-  <si>
-    <t>IfSkip</t>
-  </si>
-  <si>
-    <t>变化后数量</t>
-  </si>
-  <si>
-    <t>NewNum</t>
-  </si>
-  <si>
-    <t>变化数量</t>
-  </si>
-  <si>
-    <t>ChangeNum</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>道具</t>
-  </si>
-  <si>
-    <t>道具Id</t>
-  </si>
-  <si>
-    <t>BindAccount</t>
-  </si>
-  <si>
-    <t>绑定账号</t>
-  </si>
-  <si>
-    <t>第三方类型, 1:fackbook</t>
-  </si>
-  <si>
-    <t>accountType</t>
-  </si>
-  <si>
-    <t>第三方ID</t>
-  </si>
-  <si>
-    <t>accountId</t>
-  </si>
-  <si>
-    <t>ErrorMsg</t>
-  </si>
-  <si>
-    <t>错误信息</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>报错场景(原因)</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>LimitGift</t>
-  </si>
-  <si>
-    <t>限制礼包统计</t>
-  </si>
-  <si>
-    <t>弹框:1弹出,2购买,3关闭</t>
-  </si>
-  <si>
     <t>推送入口:1登陆,2回到地图,3金币不足</t>
   </si>
   <si>
@@ -716,9 +761,6 @@
     <t>giftId</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
     <t>coin</t>
   </si>
   <si>
@@ -752,227 +794,32 @@
     <t>停留时间</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗/获得类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡内观看广告,当天第几次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemainMoves</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余步数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1每日转盘,2关卡失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无拉取到的广告:0没有,1有</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasAd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ad_Reward</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>InitTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>记录初始化时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>启动初始化时各步骤的用时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, string&gt;</t>
   </si>
   <si>
     <t>initCostTimeByStep</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dictionary&lt;string, string&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡前置道具使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreUsedGoods</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡内道具使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>InUsedGoods</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币买步数次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyLifeCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>看广告次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>watchAdCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>转盘获得步数的次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wheelGotLifeCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete_Level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dictionary&lt;int, int&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>continuedWinRewardLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入关卡时的连胜奖励(皇冠)等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoWayOut_Level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡中没有可点击色块了（卡死了）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前关卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail_Level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡失败记录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaySuccess</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店skuId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买时的等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买前的金币数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinsBeforePay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格(美元)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买前的历史付费金额(美元)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>payTotalBeforePay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付时的平台</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,7 +831,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -992,58 +838,167 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,54 +1007,240 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39988402966399123"/>
+        <fgColor theme="7" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39988402966399123"/>
+        <fgColor theme="5" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39988402966399123"/>
+        <fgColor theme="3" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1146,11 +1287,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1173,20 +1556,62 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1235,7 +1660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1268,26 +1693,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1320,23 +1728,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1507,84 +1898,85 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:JP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="25.6634615384615" customWidth="1"/>
+    <col min="3" max="3" width="34.3365384615385" customWidth="1"/>
+    <col min="4" max="4" width="40.6634615384615" style="3" customWidth="1"/>
     <col min="5" max="5" width="35" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.6634615384615" customWidth="1"/>
+    <col min="7" max="7" width="34.6634615384615" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.1634615384615" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="21.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1634615384615" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.6634615384615" customWidth="1"/>
     <col min="13" max="13" width="21.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.1634615384615" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.8365384615385" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="29.33203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1634615384615" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.6634615384615" customWidth="1"/>
+    <col min="19" max="19" width="29.3365384615385" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.1634615384615" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.3365384615385" customWidth="1"/>
     <col min="22" max="22" width="21.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.1634615384615" style="3" customWidth="1"/>
     <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.6634615384615" style="3" customWidth="1"/>
     <col min="26" max="26" width="11" style="3" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="28" width="19.1640625" customWidth="1"/>
+    <col min="27" max="27" width="19.6634615384615" customWidth="1"/>
+    <col min="28" max="28" width="19.1634615384615" customWidth="1"/>
     <col min="29" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="19.33203125" customWidth="1"/>
-    <col min="32" max="32" width="11.33203125" customWidth="1"/>
-    <col min="33" max="33" width="11.83203125" customWidth="1"/>
-    <col min="34" max="34" width="21.33203125" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" customWidth="1"/>
-    <col min="36" max="36" width="16.33203125" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" customWidth="1"/>
-    <col min="39" max="40" width="11.83203125" customWidth="1"/>
-    <col min="42" max="43" width="11.83203125" customWidth="1"/>
-    <col min="44" max="44" width="11.33203125" customWidth="1"/>
-    <col min="45" max="46" width="11.83203125" customWidth="1"/>
-    <col min="47" max="47" width="11.33203125" customWidth="1"/>
-    <col min="48" max="49" width="11.83203125" customWidth="1"/>
-    <col min="50" max="50" width="11.33203125" customWidth="1"/>
-    <col min="51" max="52" width="11.83203125" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" customWidth="1"/>
+    <col min="31" max="31" width="19.3365384615385" customWidth="1"/>
+    <col min="32" max="32" width="11.3365384615385" customWidth="1"/>
+    <col min="33" max="33" width="11.8365384615385" customWidth="1"/>
+    <col min="34" max="34" width="21.3365384615385" customWidth="1"/>
+    <col min="35" max="35" width="11.3365384615385" customWidth="1"/>
+    <col min="36" max="36" width="16.3365384615385" customWidth="1"/>
+    <col min="37" max="37" width="11.8365384615385" customWidth="1"/>
+    <col min="38" max="38" width="11.3365384615385" customWidth="1"/>
+    <col min="39" max="40" width="11.8365384615385" customWidth="1"/>
+    <col min="42" max="43" width="11.8365384615385" customWidth="1"/>
+    <col min="44" max="44" width="11.3365384615385" customWidth="1"/>
+    <col min="45" max="46" width="11.8365384615385" customWidth="1"/>
+    <col min="47" max="47" width="11.3365384615385" customWidth="1"/>
+    <col min="48" max="49" width="11.8365384615385" customWidth="1"/>
+    <col min="50" max="50" width="11.3365384615385" customWidth="1"/>
+    <col min="51" max="52" width="11.8365384615385" customWidth="1"/>
+    <col min="53" max="53" width="11.3365384615385" customWidth="1"/>
     <col min="54" max="54" width="14.5" customWidth="1"/>
-    <col min="55" max="55" width="17.1640625" customWidth="1"/>
-    <col min="56" max="56" width="11.33203125" customWidth="1"/>
-    <col min="57" max="57" width="21.6640625" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" customWidth="1"/>
-    <col min="59" max="59" width="11.33203125" customWidth="1"/>
-    <col min="60" max="60" width="23.33203125" customWidth="1"/>
-    <col min="61" max="61" width="15.1640625" customWidth="1"/>
-    <col min="62" max="62" width="11.33203125" customWidth="1"/>
+    <col min="55" max="55" width="17.1634615384615" customWidth="1"/>
+    <col min="56" max="56" width="11.3365384615385" customWidth="1"/>
+    <col min="57" max="57" width="21.6634615384615" customWidth="1"/>
+    <col min="58" max="58" width="15.3365384615385" customWidth="1"/>
+    <col min="59" max="59" width="11.3365384615385" customWidth="1"/>
+    <col min="60" max="60" width="23.3365384615385" customWidth="1"/>
+    <col min="61" max="61" width="15.1634615384615" customWidth="1"/>
+    <col min="62" max="62" width="11.3365384615385" customWidth="1"/>
     <col min="63" max="63" width="17.5" customWidth="1"/>
     <col min="64" max="64" width="15" customWidth="1"/>
-    <col min="65" max="65" width="11.33203125" customWidth="1"/>
+    <col min="65" max="65" width="11.3365384615385" customWidth="1"/>
     <col min="66" max="66" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" ht="16">
+    <row r="1" s="1" customFormat="1" ht="17.6" spans="1:66">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +2176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" ht="16">
+    <row r="2" s="1" customFormat="1" ht="17.6" spans="1:66">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1984,107 +2376,107 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="2" customFormat="1" ht="16">
+    <row r="3" s="2" customFormat="1" ht="17.6" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" ht="16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:51">
       <c r="A4" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -2126,24 +2518,24 @@
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
     </row>
-    <row r="5" spans="1:66" ht="16">
+    <row r="5" ht="17.6" spans="1:51">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2191,78 +2583,78 @@
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
     </row>
-    <row r="6" spans="1:66" ht="16">
+    <row r="6" ht="17.6" spans="1:51">
       <c r="A6" s="8" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -2292,24 +2684,24 @@
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
     </row>
-    <row r="7" spans="1:66" ht="16">
+    <row r="7" ht="17.6" spans="1:51">
       <c r="A7" s="9" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2357,24 +2749,24 @@
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
     </row>
-    <row r="8" spans="1:66" ht="16">
+    <row r="8" ht="17.6" spans="1:51">
       <c r="A8" s="9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2422,24 +2814,24 @@
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
     </row>
-    <row r="9" spans="1:66" ht="16">
+    <row r="9" ht="17.6" spans="1:51">
       <c r="A9" s="9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2487,96 +2879,96 @@
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
     </row>
-    <row r="10" spans="1:66" ht="16">
+    <row r="10" ht="17.6" spans="1:51">
       <c r="A10" s="9" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2600,87 +2992,87 @@
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
     </row>
-    <row r="11" spans="1:66" ht="16">
+    <row r="11" ht="17.6" spans="1:51">
       <c r="A11" s="9" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -2707,33 +3099,33 @@
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
     </row>
-    <row r="12" spans="1:66" ht="16">
+    <row r="12" ht="17.6" spans="1:51">
       <c r="A12" s="9" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2777,24 +3169,24 @@
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
     </row>
-    <row r="13" spans="1:66" ht="16">
+    <row r="13" ht="17.6" spans="1:51">
       <c r="A13" s="11" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2842,42 +3234,42 @@
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
     </row>
-    <row r="14" spans="1:66" ht="16">
+    <row r="14" ht="17.6" spans="1:51">
       <c r="A14" s="11" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -2919,51 +3311,51 @@
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
     </row>
-    <row r="15" spans="1:66" ht="16">
+    <row r="15" ht="17.6" spans="1:51">
       <c r="A15" s="11" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -3002,33 +3394,33 @@
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
     </row>
-    <row r="16" spans="1:66" ht="16">
+    <row r="16" ht="17.6" spans="1:51">
       <c r="A16" s="11" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -3073,24 +3465,24 @@
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
     </row>
-    <row r="17" spans="1:276" ht="16">
+    <row r="17" ht="17.6" spans="1:48">
       <c r="A17" s="11" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -3135,20 +3527,20 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
     </row>
-    <row r="18" spans="1:276" ht="16">
+    <row r="18" ht="17.6" spans="1:51">
       <c r="A18" s="11" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3196,51 +3588,51 @@
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
     </row>
-    <row r="19" spans="1:276" ht="16">
+    <row r="19" ht="17.6" spans="1:51">
       <c r="A19" s="11" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>193</v>
+      <c r="D19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -3279,33 +3671,33 @@
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
     </row>
-    <row r="20" spans="1:276" ht="16">
+    <row r="20" ht="17.6" spans="1:51">
       <c r="A20" s="12" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3350,33 +3742,33 @@
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
     </row>
-    <row r="21" spans="1:276" ht="16">
+    <row r="21" ht="17.6" spans="1:51">
       <c r="A21" s="12" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -3421,69 +3813,69 @@
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
     </row>
-    <row r="22" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="22" s="2" customFormat="1" ht="17.6" spans="1:276">
       <c r="A22" s="13" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -3741,42 +4133,42 @@
       <c r="JO22" s="6"/>
       <c r="JP22" s="6"/>
     </row>
-    <row r="23" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="23" s="2" customFormat="1" ht="17.6" spans="1:276">
       <c r="A23" s="13" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -4043,24 +4435,24 @@
       <c r="JO23" s="6"/>
       <c r="JP23" s="6"/>
     </row>
-    <row r="24" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="24" s="2" customFormat="1" ht="17.6" spans="1:276">
       <c r="A24" s="5" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -4333,7 +4725,7 @@
       <c r="JO24" s="6"/>
       <c r="JP24" s="6"/>
     </row>
-    <row r="25" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="25" s="2" customFormat="1" ht="17.6" spans="1:276">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4611,7 +5003,7 @@
       <c r="JO25" s="6"/>
       <c r="JP25" s="6"/>
     </row>
-    <row r="26" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="26" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4667,7 +5059,7 @@
       <c r="BA26" s="6"/>
       <c r="BB26" s="6"/>
     </row>
-    <row r="27" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="27" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4723,7 +5115,7 @@
       <c r="BA27" s="6"/>
       <c r="BB27" s="6"/>
     </row>
-    <row r="28" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="28" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4779,7 +5171,7 @@
       <c r="BA28" s="6"/>
       <c r="BB28" s="6"/>
     </row>
-    <row r="29" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="29" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4835,7 +5227,7 @@
       <c r="BA29" s="6"/>
       <c r="BB29" s="6"/>
     </row>
-    <row r="30" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="30" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4891,7 +5283,7 @@
       <c r="BA30" s="6"/>
       <c r="BB30" s="6"/>
     </row>
-    <row r="31" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="31" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4947,7 +5339,7 @@
       <c r="BA31" s="6"/>
       <c r="BB31" s="6"/>
     </row>
-    <row r="32" spans="1:276" s="2" customFormat="1" ht="16">
+    <row r="32" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5003,7 +5395,7 @@
       <c r="BA32" s="6"/>
       <c r="BB32" s="6"/>
     </row>
-    <row r="33" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="33" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5059,7 +5451,7 @@
       <c r="BA33" s="6"/>
       <c r="BB33" s="6"/>
     </row>
-    <row r="34" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="34" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5115,7 +5507,7 @@
       <c r="BA34" s="6"/>
       <c r="BB34" s="6"/>
     </row>
-    <row r="35" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="35" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -5171,7 +5563,7 @@
       <c r="BA35" s="6"/>
       <c r="BB35" s="6"/>
     </row>
-    <row r="36" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="36" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -5227,7 +5619,7 @@
       <c r="BA36" s="6"/>
       <c r="BB36" s="6"/>
     </row>
-    <row r="37" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="37" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5283,7 +5675,7 @@
       <c r="BA37" s="6"/>
       <c r="BB37" s="6"/>
     </row>
-    <row r="38" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="38" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5339,7 +5731,7 @@
       <c r="BA38" s="6"/>
       <c r="BB38" s="6"/>
     </row>
-    <row r="39" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="39" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5395,7 +5787,7 @@
       <c r="BA39" s="6"/>
       <c r="BB39" s="6"/>
     </row>
-    <row r="40" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="40" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -5451,7 +5843,7 @@
       <c r="BA40" s="6"/>
       <c r="BB40" s="6"/>
     </row>
-    <row r="41" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="41" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5507,7 +5899,7 @@
       <c r="BA41" s="6"/>
       <c r="BB41" s="6"/>
     </row>
-    <row r="42" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="42" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -5563,7 +5955,7 @@
       <c r="BA42" s="6"/>
       <c r="BB42" s="6"/>
     </row>
-    <row r="43" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="43" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5619,7 +6011,7 @@
       <c r="BA43" s="6"/>
       <c r="BB43" s="6"/>
     </row>
-    <row r="44" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="44" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -5675,7 +6067,7 @@
       <c r="BA44" s="6"/>
       <c r="BB44" s="6"/>
     </row>
-    <row r="45" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="45" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -5731,7 +6123,7 @@
       <c r="BA45" s="6"/>
       <c r="BB45" s="6"/>
     </row>
-    <row r="46" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="46" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -5787,7 +6179,7 @@
       <c r="BA46" s="6"/>
       <c r="BB46" s="6"/>
     </row>
-    <row r="47" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="47" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -5843,7 +6235,7 @@
       <c r="BA47" s="6"/>
       <c r="BB47" s="6"/>
     </row>
-    <row r="48" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="48" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5899,7 +6291,7 @@
       <c r="BA48" s="6"/>
       <c r="BB48" s="6"/>
     </row>
-    <row r="49" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="49" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5955,7 +6347,7 @@
       <c r="BA49" s="6"/>
       <c r="BB49" s="6"/>
     </row>
-    <row r="50" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="50" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -6011,7 +6403,7 @@
       <c r="BA50" s="6"/>
       <c r="BB50" s="6"/>
     </row>
-    <row r="51" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="51" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6067,7 +6459,7 @@
       <c r="BA51" s="6"/>
       <c r="BB51" s="6"/>
     </row>
-    <row r="52" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="52" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6123,7 +6515,7 @@
       <c r="BA52" s="6"/>
       <c r="BB52" s="6"/>
     </row>
-    <row r="53" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="53" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6179,7 +6571,7 @@
       <c r="BA53" s="6"/>
       <c r="BB53" s="6"/>
     </row>
-    <row r="54" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="54" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6235,7 +6627,7 @@
       <c r="BA54" s="6"/>
       <c r="BB54" s="6"/>
     </row>
-    <row r="55" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="55" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6291,7 +6683,7 @@
       <c r="BA55" s="6"/>
       <c r="BB55" s="6"/>
     </row>
-    <row r="56" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="56" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6347,7 +6739,7 @@
       <c r="BA56" s="6"/>
       <c r="BB56" s="6"/>
     </row>
-    <row r="57" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="57" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6403,7 +6795,7 @@
       <c r="BA57" s="6"/>
       <c r="BB57" s="6"/>
     </row>
-    <row r="58" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="58" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6459,7 +6851,7 @@
       <c r="BA58" s="6"/>
       <c r="BB58" s="6"/>
     </row>
-    <row r="59" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="59" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -6515,7 +6907,7 @@
       <c r="BA59" s="6"/>
       <c r="BB59" s="6"/>
     </row>
-    <row r="60" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="60" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -6571,7 +6963,7 @@
       <c r="BA60" s="6"/>
       <c r="BB60" s="6"/>
     </row>
-    <row r="61" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="61" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6627,7 +7019,7 @@
       <c r="BA61" s="6"/>
       <c r="BB61" s="6"/>
     </row>
-    <row r="62" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="62" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6683,7 +7075,7 @@
       <c r="BA62" s="6"/>
       <c r="BB62" s="6"/>
     </row>
-    <row r="63" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="63" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6739,7 +7131,7 @@
       <c r="BA63" s="6"/>
       <c r="BB63" s="6"/>
     </row>
-    <row r="64" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="64" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -6795,7 +7187,7 @@
       <c r="BA64" s="6"/>
       <c r="BB64" s="6"/>
     </row>
-    <row r="65" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="65" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -6851,7 +7243,7 @@
       <c r="BA65" s="6"/>
       <c r="BB65" s="6"/>
     </row>
-    <row r="66" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="66" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -6907,7 +7299,7 @@
       <c r="BA66" s="6"/>
       <c r="BB66" s="6"/>
     </row>
-    <row r="67" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="67" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -6963,7 +7355,7 @@
       <c r="BA67" s="6"/>
       <c r="BB67" s="6"/>
     </row>
-    <row r="68" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="68" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -7019,7 +7411,7 @@
       <c r="BA68" s="6"/>
       <c r="BB68" s="6"/>
     </row>
-    <row r="69" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="69" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -7075,7 +7467,7 @@
       <c r="BA69" s="6"/>
       <c r="BB69" s="6"/>
     </row>
-    <row r="70" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="70" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -7131,7 +7523,7 @@
       <c r="BA70" s="6"/>
       <c r="BB70" s="6"/>
     </row>
-    <row r="71" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="71" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -7187,7 +7579,7 @@
       <c r="BA71" s="6"/>
       <c r="BB71" s="6"/>
     </row>
-    <row r="72" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="72" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -7243,7 +7635,7 @@
       <c r="BA72" s="6"/>
       <c r="BB72" s="6"/>
     </row>
-    <row r="73" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="73" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -7299,7 +7691,7 @@
       <c r="BA73" s="6"/>
       <c r="BB73" s="6"/>
     </row>
-    <row r="74" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="74" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -7355,7 +7747,7 @@
       <c r="BA74" s="6"/>
       <c r="BB74" s="6"/>
     </row>
-    <row r="75" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="75" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -7411,7 +7803,7 @@
       <c r="BA75" s="6"/>
       <c r="BB75" s="6"/>
     </row>
-    <row r="76" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="76" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -7467,7 +7859,7 @@
       <c r="BA76" s="6"/>
       <c r="BB76" s="6"/>
     </row>
-    <row r="77" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="77" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -7523,7 +7915,7 @@
       <c r="BA77" s="6"/>
       <c r="BB77" s="6"/>
     </row>
-    <row r="78" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="78" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -7579,7 +7971,7 @@
       <c r="BA78" s="6"/>
       <c r="BB78" s="6"/>
     </row>
-    <row r="79" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="79" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -7635,7 +8027,7 @@
       <c r="BA79" s="6"/>
       <c r="BB79" s="6"/>
     </row>
-    <row r="80" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="80" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -7691,7 +8083,7 @@
       <c r="BA80" s="6"/>
       <c r="BB80" s="6"/>
     </row>
-    <row r="81" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="81" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -7747,7 +8139,7 @@
       <c r="BA81" s="6"/>
       <c r="BB81" s="6"/>
     </row>
-    <row r="82" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="82" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -7803,7 +8195,7 @@
       <c r="BA82" s="6"/>
       <c r="BB82" s="6"/>
     </row>
-    <row r="83" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="83" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -7859,7 +8251,7 @@
       <c r="BA83" s="6"/>
       <c r="BB83" s="6"/>
     </row>
-    <row r="84" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="84" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -7915,7 +8307,7 @@
       <c r="BA84" s="6"/>
       <c r="BB84" s="6"/>
     </row>
-    <row r="85" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="85" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -7971,7 +8363,7 @@
       <c r="BA85" s="6"/>
       <c r="BB85" s="6"/>
     </row>
-    <row r="86" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="86" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -8027,7 +8419,7 @@
       <c r="BA86" s="6"/>
       <c r="BB86" s="6"/>
     </row>
-    <row r="87" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="87" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -8083,7 +8475,7 @@
       <c r="BA87" s="6"/>
       <c r="BB87" s="6"/>
     </row>
-    <row r="88" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="88" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -8139,7 +8531,7 @@
       <c r="BA88" s="6"/>
       <c r="BB88" s="6"/>
     </row>
-    <row r="89" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="89" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -8195,7 +8587,7 @@
       <c r="BA89" s="6"/>
       <c r="BB89" s="6"/>
     </row>
-    <row r="90" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="90" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -8251,7 +8643,7 @@
       <c r="BA90" s="6"/>
       <c r="BB90" s="6"/>
     </row>
-    <row r="91" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="91" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -8307,7 +8699,7 @@
       <c r="BA91" s="6"/>
       <c r="BB91" s="6"/>
     </row>
-    <row r="92" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="92" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -8363,7 +8755,7 @@
       <c r="BA92" s="6"/>
       <c r="BB92" s="6"/>
     </row>
-    <row r="93" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="93" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -8419,7 +8811,7 @@
       <c r="BA93" s="6"/>
       <c r="BB93" s="6"/>
     </row>
-    <row r="94" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="94" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -8475,7 +8867,7 @@
       <c r="BA94" s="6"/>
       <c r="BB94" s="6"/>
     </row>
-    <row r="95" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="95" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -8531,7 +8923,7 @@
       <c r="BA95" s="6"/>
       <c r="BB95" s="6"/>
     </row>
-    <row r="96" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="96" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8587,7 +8979,7 @@
       <c r="BA96" s="6"/>
       <c r="BB96" s="6"/>
     </row>
-    <row r="97" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="97" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -8643,7 +9035,7 @@
       <c r="BA97" s="6"/>
       <c r="BB97" s="6"/>
     </row>
-    <row r="98" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="98" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -8699,7 +9091,7 @@
       <c r="BA98" s="6"/>
       <c r="BB98" s="6"/>
     </row>
-    <row r="99" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="99" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -8755,7 +9147,7 @@
       <c r="BA99" s="6"/>
       <c r="BB99" s="6"/>
     </row>
-    <row r="100" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="100" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -8811,7 +9203,7 @@
       <c r="BA100" s="6"/>
       <c r="BB100" s="6"/>
     </row>
-    <row r="101" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="101" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -8867,7 +9259,7 @@
       <c r="BA101" s="6"/>
       <c r="BB101" s="6"/>
     </row>
-    <row r="102" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="102" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -8923,7 +9315,7 @@
       <c r="BA102" s="6"/>
       <c r="BB102" s="6"/>
     </row>
-    <row r="103" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="103" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -8979,7 +9371,7 @@
       <c r="BA103" s="6"/>
       <c r="BB103" s="6"/>
     </row>
-    <row r="104" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="104" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -9035,7 +9427,7 @@
       <c r="BA104" s="6"/>
       <c r="BB104" s="6"/>
     </row>
-    <row r="105" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="105" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -9091,7 +9483,7 @@
       <c r="BA105" s="6"/>
       <c r="BB105" s="6"/>
     </row>
-    <row r="106" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="106" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -9147,7 +9539,7 @@
       <c r="BA106" s="6"/>
       <c r="BB106" s="6"/>
     </row>
-    <row r="107" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="107" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -9203,7 +9595,7 @@
       <c r="BA107" s="6"/>
       <c r="BB107" s="6"/>
     </row>
-    <row r="108" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="108" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -9259,7 +9651,7 @@
       <c r="BA108" s="6"/>
       <c r="BB108" s="6"/>
     </row>
-    <row r="109" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="109" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -9315,7 +9707,7 @@
       <c r="BA109" s="6"/>
       <c r="BB109" s="6"/>
     </row>
-    <row r="110" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="110" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -9371,7 +9763,7 @@
       <c r="BA110" s="6"/>
       <c r="BB110" s="6"/>
     </row>
-    <row r="111" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="111" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -9427,7 +9819,7 @@
       <c r="BA111" s="6"/>
       <c r="BB111" s="6"/>
     </row>
-    <row r="112" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="112" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -9483,7 +9875,7 @@
       <c r="BA112" s="6"/>
       <c r="BB112" s="6"/>
     </row>
-    <row r="113" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="113" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -9539,7 +9931,7 @@
       <c r="BA113" s="6"/>
       <c r="BB113" s="6"/>
     </row>
-    <row r="114" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="114" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -9595,7 +9987,7 @@
       <c r="BA114" s="6"/>
       <c r="BB114" s="6"/>
     </row>
-    <row r="115" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="115" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -9651,7 +10043,7 @@
       <c r="BA115" s="6"/>
       <c r="BB115" s="6"/>
     </row>
-    <row r="116" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="116" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -9707,7 +10099,7 @@
       <c r="BA116" s="6"/>
       <c r="BB116" s="6"/>
     </row>
-    <row r="117" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="117" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -9763,7 +10155,7 @@
       <c r="BA117" s="6"/>
       <c r="BB117" s="6"/>
     </row>
-    <row r="118" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="118" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -9819,7 +10211,7 @@
       <c r="BA118" s="6"/>
       <c r="BB118" s="6"/>
     </row>
-    <row r="119" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="119" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -9875,7 +10267,7 @@
       <c r="BA119" s="6"/>
       <c r="BB119" s="6"/>
     </row>
-    <row r="120" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="120" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -9931,7 +10323,7 @@
       <c r="BA120" s="6"/>
       <c r="BB120" s="6"/>
     </row>
-    <row r="121" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="121" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -9987,7 +10379,7 @@
       <c r="BA121" s="6"/>
       <c r="BB121" s="6"/>
     </row>
-    <row r="122" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="122" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -10043,7 +10435,7 @@
       <c r="BA122" s="6"/>
       <c r="BB122" s="6"/>
     </row>
-    <row r="123" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="123" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -10099,7 +10491,7 @@
       <c r="BA123" s="6"/>
       <c r="BB123" s="6"/>
     </row>
-    <row r="124" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="124" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -10155,7 +10547,7 @@
       <c r="BA124" s="6"/>
       <c r="BB124" s="6"/>
     </row>
-    <row r="125" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="125" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -10211,7 +10603,7 @@
       <c r="BA125" s="6"/>
       <c r="BB125" s="6"/>
     </row>
-    <row r="126" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="126" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -10267,7 +10659,7 @@
       <c r="BA126" s="6"/>
       <c r="BB126" s="6"/>
     </row>
-    <row r="127" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="127" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -10323,7 +10715,7 @@
       <c r="BA127" s="6"/>
       <c r="BB127" s="6"/>
     </row>
-    <row r="128" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="128" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -10379,7 +10771,7 @@
       <c r="BA128" s="6"/>
       <c r="BB128" s="6"/>
     </row>
-    <row r="129" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="129" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -10435,7 +10827,7 @@
       <c r="BA129" s="6"/>
       <c r="BB129" s="6"/>
     </row>
-    <row r="130" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="130" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -10491,7 +10883,7 @@
       <c r="BA130" s="6"/>
       <c r="BB130" s="6"/>
     </row>
-    <row r="131" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="131" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -10547,7 +10939,7 @@
       <c r="BA131" s="6"/>
       <c r="BB131" s="6"/>
     </row>
-    <row r="132" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="132" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -10603,7 +10995,7 @@
       <c r="BA132" s="6"/>
       <c r="BB132" s="6"/>
     </row>
-    <row r="133" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="133" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -10659,7 +11051,7 @@
       <c r="BA133" s="6"/>
       <c r="BB133" s="6"/>
     </row>
-    <row r="134" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="134" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -10715,7 +11107,7 @@
       <c r="BA134" s="6"/>
       <c r="BB134" s="6"/>
     </row>
-    <row r="135" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="135" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -10771,7 +11163,7 @@
       <c r="BA135" s="6"/>
       <c r="BB135" s="6"/>
     </row>
-    <row r="136" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="136" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -10827,7 +11219,7 @@
       <c r="BA136" s="6"/>
       <c r="BB136" s="6"/>
     </row>
-    <row r="137" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="137" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -10883,7 +11275,7 @@
       <c r="BA137" s="6"/>
       <c r="BB137" s="6"/>
     </row>
-    <row r="138" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="138" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -10939,7 +11331,7 @@
       <c r="BA138" s="6"/>
       <c r="BB138" s="6"/>
     </row>
-    <row r="139" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="139" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -10995,7 +11387,7 @@
       <c r="BA139" s="6"/>
       <c r="BB139" s="6"/>
     </row>
-    <row r="140" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="140" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -11051,7 +11443,7 @@
       <c r="BA140" s="6"/>
       <c r="BB140" s="6"/>
     </row>
-    <row r="141" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="141" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -11107,7 +11499,7 @@
       <c r="BA141" s="6"/>
       <c r="BB141" s="6"/>
     </row>
-    <row r="142" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="142" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -11163,7 +11555,7 @@
       <c r="BA142" s="6"/>
       <c r="BB142" s="6"/>
     </row>
-    <row r="143" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="143" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -11219,7 +11611,7 @@
       <c r="BA143" s="6"/>
       <c r="BB143" s="6"/>
     </row>
-    <row r="144" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="144" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -11275,7 +11667,7 @@
       <c r="BA144" s="6"/>
       <c r="BB144" s="6"/>
     </row>
-    <row r="145" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="145" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -11331,7 +11723,7 @@
       <c r="BA145" s="6"/>
       <c r="BB145" s="6"/>
     </row>
-    <row r="146" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="146" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -11387,7 +11779,7 @@
       <c r="BA146" s="6"/>
       <c r="BB146" s="6"/>
     </row>
-    <row r="147" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="147" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -11443,7 +11835,7 @@
       <c r="BA147" s="6"/>
       <c r="BB147" s="6"/>
     </row>
-    <row r="148" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="148" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -11499,7 +11891,7 @@
       <c r="BA148" s="6"/>
       <c r="BB148" s="6"/>
     </row>
-    <row r="149" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="149" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -11555,7 +11947,7 @@
       <c r="BA149" s="6"/>
       <c r="BB149" s="6"/>
     </row>
-    <row r="150" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="150" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -11611,7 +12003,7 @@
       <c r="BA150" s="6"/>
       <c r="BB150" s="6"/>
     </row>
-    <row r="151" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="151" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -11667,7 +12059,7 @@
       <c r="BA151" s="6"/>
       <c r="BB151" s="6"/>
     </row>
-    <row r="152" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="152" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -11723,7 +12115,7 @@
       <c r="BA152" s="6"/>
       <c r="BB152" s="6"/>
     </row>
-    <row r="153" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="153" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -11779,7 +12171,7 @@
       <c r="BA153" s="6"/>
       <c r="BB153" s="6"/>
     </row>
-    <row r="154" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="154" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -11835,7 +12227,7 @@
       <c r="BA154" s="6"/>
       <c r="BB154" s="6"/>
     </row>
-    <row r="155" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="155" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -11891,7 +12283,7 @@
       <c r="BA155" s="6"/>
       <c r="BB155" s="6"/>
     </row>
-    <row r="156" spans="1:54" s="2" customFormat="1" ht="16">
+    <row r="156" s="2" customFormat="1" ht="17.6" spans="1:54">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -11947,7 +12339,7 @@
       <c r="BA156" s="6"/>
       <c r="BB156" s="6"/>
     </row>
-    <row r="157" spans="1:54" ht="16">
+    <row r="157" spans="27:54">
       <c r="AA157" s="6"/>
       <c r="AB157" s="6"/>
       <c r="AC157" s="6"/>
@@ -11977,7 +12369,7 @@
       <c r="BA157" s="6"/>
       <c r="BB157" s="6"/>
     </row>
-    <row r="158" spans="1:54" ht="16">
+    <row r="158" spans="27:54">
       <c r="AA158" s="6"/>
       <c r="AB158" s="6"/>
       <c r="AC158" s="6"/>
@@ -12008,9 +12400,9 @@
       <c r="BB158" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>